--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARN\Python\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E16B2-9F79-4A85-9C4C-8AAA96854C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C501D11-864F-41EE-8180-318EF0CC7FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2025" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{20F3A980-B994-4ED7-ADAF-E13A451442A1}"/>
+    <workbookView xWindow="5625" yWindow="1875" windowWidth="21600" windowHeight="11505" xr2:uid="{20F3A980-B994-4ED7-ADAF-E13A451442A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Student data" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nguyễn Quang Hào</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Phan Văn B</t>
-  </si>
-  <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>20IBM1</t>
-  </si>
-  <si>
     <t>Lê Thị Tấm</t>
   </si>
   <si>
@@ -116,13 +107,31 @@
   </si>
   <si>
     <t>Hea Min</t>
+  </si>
+  <si>
+    <t>Phan Thanh Lâm</t>
+  </si>
+  <si>
+    <t>20THM2</t>
+  </si>
+  <si>
+    <t>Lê Đại Hải</t>
+  </si>
+  <si>
+    <t>20IBM3</t>
+  </si>
+  <si>
+    <t>hao.nguyen200404@vnuk.edu.vn</t>
+  </si>
+  <si>
+    <t>Student_Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +146,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,10 +175,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,8 +187,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3B52DE-8BA1-420A-90E6-D6733346AF37}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,23 +516,27 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20040004</v>
       </c>
@@ -518,71 +544,77 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>20040003</v>
+        <v>20050005</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>20010039</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20040002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20040000</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20040001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{69C9D891-5331-41BC-905F-02F5BA8DC458}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -590,66 +622,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF03B90-22A1-48A7-9789-2F2051E604FF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>8936037799377</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>8935251405972</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>8935235219489</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>8935235229693</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>8935235218130</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,172 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARN\Python\Final_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C501D11-864F-41EE-8180-318EF0CC7FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="1875" windowWidth="21600" windowHeight="11505" xr2:uid="{20F3A980-B994-4ED7-ADAF-E13A451442A1}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5970" yWindow="2220" windowWidth="21600" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Student data" sheetId="1" r:id="rId1"/>
-    <sheet name="Book data" sheetId="2" r:id="rId2"/>
+    <sheet name="Student data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Book data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Borrowed data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Nguyễn Quang Hào</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>Lê Thị Tấm</t>
-  </si>
-  <si>
-    <t>Trần Chín</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>THM</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>20DS</t>
-  </si>
-  <si>
-    <t>20CSE</t>
-  </si>
-  <si>
-    <t>20THM1</t>
-  </si>
-  <si>
-    <t>STUDENT</t>
-  </si>
-  <si>
-    <t>Student_Major</t>
-  </si>
-  <si>
-    <t>Student_Class</t>
-  </si>
-  <si>
-    <t>Student_ID</t>
-  </si>
-  <si>
-    <t>BOOK</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>Tư Duy Nhanh Và Chậm</t>
-  </si>
-  <si>
-    <t>Những Cuộc Phiêu Lưu Trong Kinh Doanh</t>
-  </si>
-  <si>
-    <t>Vào Trong Hoang Dã</t>
-  </si>
-  <si>
-    <t>Tương Lai Sau Đại Dịch Covid</t>
-  </si>
-  <si>
-    <t>Yêu những điều không hoàn hảo</t>
-  </si>
-  <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
-    <t>John Brooks</t>
-  </si>
-  <si>
-    <t>Daniel Kahneman</t>
-  </si>
-  <si>
-    <t>Jon Krakauer</t>
-  </si>
-  <si>
-    <t>Jason Schenker</t>
-  </si>
-  <si>
-    <t>Hea Min</t>
-  </si>
-  <si>
-    <t>Phan Thanh Lâm</t>
-  </si>
-  <si>
-    <t>20THM2</t>
-  </si>
-  <si>
-    <t>Lê Đại Hải</t>
-  </si>
-  <si>
-    <t>20IBM3</t>
-  </si>
-  <si>
-    <t>hao.nguyen200404@vnuk.edu.vn</t>
-  </si>
-  <si>
-    <t>Student_Email</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <charset val="163"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <charset val="163"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
+      <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,36 +64,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -503,208 +461,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3B52DE-8BA1-420A-90E6-D6733346AF37}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col width="21.85546875" customWidth="1" min="1" max="1"/>
+    <col width="19.5703125" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="15.140625" customWidth="1" min="4" max="4"/>
+    <col width="36.5703125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Student_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>STUDENT</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Student_Major</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Student_Class</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Student_Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>20040004</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Hào</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>20DS</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>hao.nguyen200404@vnuk.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>20050005</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Phan Thanh Lâm</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>THM</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>20THM2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>20010039</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Lê Đại Hải</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>20IBM3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>20040000</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Lê Thị Tấm</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>20CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>20040001</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Trần Chín</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>THM</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>20THM1</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{69C9D891-5331-41BC-905F-02F5BA8DC458}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF03B90-22A1-48A7-9789-2F2051E604FF}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col width="23.5703125" customWidth="1" min="1" max="1"/>
+    <col width="55.85546875" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>BOOK</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AUTHOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>8936037799377</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Những Cuộc Phiêu Lưu Trong Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>John Brooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>8935251405972</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tư Duy Nhanh Và Chậm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Daniel Kahneman</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>8935235219489</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vào Trong Hoang Dã</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Jon Krakauer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>8935235229693</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tương Lai Sau Đại Dịch Covid</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jason Schenker</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>8935235218130</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yêu những điều không hoàn hảo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hea Min</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://www.google.com/search?rlz=1C1ONGR_enVN930VN930&amp;biw=2133&amp;bih=988&amp;sxsrf=AOaemvKHmidgqnIP8RoJ9Tteus-8AQQmhw:1632839576410&amp;q=Jon+Krakauer&amp;stick=H4sIAAAAAAAAAOPgE-LUz9U3MDGvrEpSAjMNi4oMk7RkspOt9JPy87P1y4syS0pS8-LL84uyrRJLSzLyixax8njl5yl4FyVmJ5amFu1gZQQAUWLmIEgAAAA&amp;sa=X&amp;ved=2ahUKEwiu17S38aHzAhVZxWEKHZDcAKYQmxMoAXoECEoQAw" xr:uid="{BD425FE6-F39A-408D-BF7F-75EAD289169A}"/>
+    <hyperlink ref="C4" display="https://www.google.com/search?rlz=1C1ONGR_enVN930VN930&amp;biw=2133&amp;bih=988&amp;sxsrf=AOaemvKHmidgqnIP8RoJ9Tteus-8AQQmhw:1632839576410&amp;q=Jon+Krakauer&amp;stick=H4sIAAAAAAAAAOPgE-LUz9U3MDGvrEpSAjMNi4oMk7RkspOt9JPy87P1y4syS0pS8-LL84uyrRJLSzLyixax8njl5yl4FyVmJ5amFu1gZQQAUWLmIEgAAAA&amp;sa=X&amp;ved=2ahUKEwiu17S38aHzAhVZxWEKHZDcAKYQmxMoAXoECEoQAw" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>BOOK</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Student_name</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tư Duy Nhanh Và Chậm</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>20040004</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Hào</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,44 +773,76 @@
           <t>Student_name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Tư Duy Nhanh Và Chậm</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Những Cuộc Phiêu Lưu Trong Kinh Doanh</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20040004</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Hào</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tư Duy Nhanh Và Chậm</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>20040004</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Hào</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nguyễn Quang Hào</t>
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vào Trong Hoang Dã</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20050005</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Phan Thanh Lâm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tương Lai Sau Đại Dịch Covid</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20010039</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Lê Đại Hải</t>
         </is>
       </c>
     </row>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,24 +828,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tương Lai Sau Đại Dịch Covid</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20010039</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Lê Đại Hải</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
